--- a/sample-file/test.xlsx
+++ b/sample-file/test.xlsx
@@ -401,16 +401,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="173.83203125" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -427,10 +433,25 @@
         <v>ppuPrice</v>
       </c>
       <c r="E1" t="str">
+        <v>Custom Package Cost</v>
+      </c>
+      <c r="F1" t="str">
         <v>Packing &amp; Labeling</v>
       </c>
-      <c r="F1" t="str">
-        <v>Custom Package Cost</v>
+      <c r="G1" t="str">
+        <v>domesticShippingCost</v>
+      </c>
+      <c r="H1" t="str">
+        <v>internationalShippingCost</v>
+      </c>
+      <c r="I1" t="str">
+        <v>itemPaymentCost</v>
+      </c>
+      <c r="J1" t="str">
+        <v>cogs</v>
+      </c>
+      <c r="K1" t="str">
+        <v>amount</v>
       </c>
     </row>
     <row r="2">
@@ -443,11 +464,29 @@
       <c r="C2" t="str">
         <v>FBA176X1FK4S</v>
       </c>
-      <c r="D2" t="str">
-        <v>(906.01 / 860 / 6.759 + 46.5 / 860 / 6.759) * 2</v>
-      </c>
-      <c r="E2" t="str">
-        <v>213.36 / 550 / 6.8606</v>
+      <c r="D2">
+        <f>(1.0535 / 6.759 + 46.5 / 860 / 6.759) * 2</f>
+      </c>
+      <c r="E2">
+        <f>0</f>
+      </c>
+      <c r="F2">
+        <f>213.36 / 550 / 6.8606</f>
+      </c>
+      <c r="G2">
+        <f>(0.05747126437 * 487) / 502</f>
+      </c>
+      <c r="H2">
+        <f>(1.1 * 487) / 502</f>
+      </c>
+      <c r="I2">
+        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
+      </c>
+      <c r="J2">
+        <v>1.5185038108413473</v>
+      </c>
+      <c r="K2">
+        <v>15.185038108413472</v>
       </c>
     </row>
     <row r="3">
@@ -460,11 +499,29 @@
       <c r="C3" t="str">
         <v>FBA176X1FK4S</v>
       </c>
-      <c r="D3" t="str">
-        <v>(406.98 / 2040 / 6.759 + 40 / 2040 / 6.759) * 4</v>
-      </c>
-      <c r="E3" t="str">
-        <v>213.36 / 550 / 6.8606</v>
+      <c r="D3">
+        <f>(0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
+      </c>
+      <c r="E3">
+        <f>0</f>
+      </c>
+      <c r="F3">
+        <f>213.36 / 550 / 6.8606</f>
+      </c>
+      <c r="G3">
+        <f>(0.05747126437 * 487) / 502</f>
+      </c>
+      <c r="H3">
+        <f>(1.1 * 487) / 502</f>
+      </c>
+      <c r="I3">
+        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
+      </c>
+      <c r="J3">
+        <v>1.3204407597487742</v>
+      </c>
+      <c r="K3">
+        <v>13.20440759748774</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +534,29 @@
       <c r="C4" t="str">
         <v>FBA176X1FK4S</v>
       </c>
-      <c r="D4" t="str">
-        <v>(145 / 10 / 6.759 + 8 / 10 / 6.759) * 1</v>
-      </c>
-      <c r="E4" t="str">
-        <v>213.36 / 550 / 6.8606</v>
+      <c r="D4">
+        <f>(14.5 / 6.759 + 0.8 / 6.759) * 1</f>
+      </c>
+      <c r="E4">
+        <f>0</f>
+      </c>
+      <c r="F4">
+        <f>213.36 / 550 / 6.8606</f>
+      </c>
+      <c r="G4">
+        <f>(0.05747126437 * 487) / 502</f>
+      </c>
+      <c r="H4">
+        <f>(1.1 * 487) / 502</f>
+      </c>
+      <c r="I4">
+        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
+      </c>
+      <c r="J4">
+        <v>3.454420435359217</v>
+      </c>
+      <c r="K4">
+        <v>34.54420435359217</v>
       </c>
     </row>
     <row r="5">
@@ -494,36 +569,69 @@
       <c r="C5" t="str">
         <v>FBA176X1FK4S</v>
       </c>
-      <c r="D5" t="str">
-        <v>65 / 10 / 6.759</v>
-      </c>
-      <c r="E5" t="str">
-        <v>213.36 / 550 / 6.8606</v>
+      <c r="D5">
+        <f>6.5 / 6.759</f>
+      </c>
+      <c r="E5">
+        <f>0</f>
+      </c>
+      <c r="F5">
+        <f>213.36 / 550 / 6.8606</f>
+      </c>
+      <c r="G5">
+        <f>(0.05747126437 * 487) / 502</f>
+      </c>
+      <c r="H5">
+        <f>(1.1 * 487) / 502</f>
+      </c>
+      <c r="I5">
+        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
+      </c>
+      <c r="J5">
+        <v>2.152452688651124</v>
+      </c>
+      <c r="K5">
+        <v>21.52452688651124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Auto-Bag-Leather-Black</v>
+        <v>Auto seat belt shoulder protection</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6" t="str">
         <v>FBA176X1FK4S</v>
       </c>
-      <c r="D6" t="str">
-        <v>0 / 6.759 + 280 / 500 / 6.759 + (406.98 / 2040 / 6.759 + 40 / 2040 / 6.759) * 4</v>
-      </c>
-      <c r="E6" t="str">
-        <v>213.36 / 550 / 6.8606</v>
-      </c>
-      <c r="F6" t="str">
-        <v>3000 / 500 / 6.759</v>
+      <c r="D6">
+        <f>3.5 / 6.759 * 2</f>
+      </c>
+      <c r="E6">
+        <f>0</f>
+      </c>
+      <c r="F6">
+        <f>213.36 / 550 / 6.8606</f>
+      </c>
+      <c r="G6">
+        <f>(0.05747126437 * 487) / 502</f>
+      </c>
+      <c r="H6">
+        <f>(1.1 * 487) / 502</f>
+      </c>
+      <c r="I6">
+        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
+      </c>
+      <c r="J6">
+        <v>2.2264281288049927</v>
+      </c>
+      <c r="K6">
+        <v>22.26428128804993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Auto-Bag-Leather-Grey</v>
+        <v>Auto-Bag-Leather-Black</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -531,19 +639,34 @@
       <c r="C7" t="str">
         <v>FBA176X1FK4S</v>
       </c>
-      <c r="D7" t="str">
-        <v>0 / 6.759 + 280 / 500 / 6.759 + (406.98 / 2040 / 6.759 + 40 / 2040 / 6.759) * 4</v>
-      </c>
-      <c r="E7" t="str">
-        <v>213.36 / 550 / 6.8606</v>
-      </c>
-      <c r="F7" t="str">
-        <v>3000 / 500 / 6.759</v>
+      <c r="D7">
+        <f>21 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
+      </c>
+      <c r="E7">
+        <f>6 / 6.759</f>
+      </c>
+      <c r="F7">
+        <f>213.36 / 550 / 6.8606</f>
+      </c>
+      <c r="G7">
+        <f>(0.05747126437 * 487) / 502</f>
+      </c>
+      <c r="H7">
+        <f>(1.1 * 487) / 502</f>
+      </c>
+      <c r="I7">
+        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
+      </c>
+      <c r="J7">
+        <v>5.397967021030029</v>
+      </c>
+      <c r="K7">
+        <v>86.36747233648046</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Auto-Bag-Suede-Black</v>
+        <v>Auto-Bag-Leather-Grey</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -551,79 +674,174 @@
       <c r="C8" t="str">
         <v>FBA176X1FK4S</v>
       </c>
-      <c r="D8" t="str">
-        <v>8320 / 260 / 6.759 + 280 / 500 / 6.759 + (406.98 / 2040 / 6.759 + 40 / 2040 / 6.759) * 4</v>
-      </c>
-      <c r="E8" t="str">
-        <v>213.36 / 550 / 6.8606</v>
-      </c>
-      <c r="F8" t="str">
-        <v>3000 / 500 / 6.759</v>
+      <c r="D8">
+        <f>21 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
+      </c>
+      <c r="E8">
+        <f>6 / 6.759</f>
+      </c>
+      <c r="F8">
+        <f>213.36 / 550 / 6.8606</f>
+      </c>
+      <c r="G8">
+        <f>(0.05747126437 * 487) / 502</f>
+      </c>
+      <c r="H8">
+        <f>(1.1 * 487) / 502</f>
+      </c>
+      <c r="I8">
+        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
+      </c>
+      <c r="J8">
+        <v>5.397967021030029</v>
+      </c>
+      <c r="K8">
+        <v>86.36747233648046</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Auto-Bag-Suede-Black-Set</v>
+        <v>Auto-Bag-Suede-Black</v>
       </c>
       <c r="B9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="C9" t="str">
         <v>FBA176X1FK4S</v>
       </c>
-      <c r="D9" t="str">
-        <v>8320 / 260 / 6.759 + 280 / 500 / 6.759 + (406.98 / 2040 / 6.759 + 40 / 2040 / 6.759) * 4 + (906.01 / 860 / 6.759 + 46.5 / 860 / 6.759) * 2 + 3010 / 860 / 6.759 * 2</v>
-      </c>
-      <c r="E9" t="str">
-        <v>213.36 / 550 / 6.8606</v>
-      </c>
-      <c r="F9" t="str">
-        <v>3000 / 500 / 6.759</v>
+      <c r="D9">
+        <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
+      </c>
+      <c r="E9">
+        <f>6 / 6.759</f>
+      </c>
+      <c r="F9">
+        <f>213.36 / 550 / 6.8606</f>
+      </c>
+      <c r="G9">
+        <f>(0.05747126437 * 487) / 502</f>
+      </c>
+      <c r="H9">
+        <f>(1.1 * 487) / 502</f>
+      </c>
+      <c r="I9">
+        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
+      </c>
+      <c r="J9">
+        <v>7.0254267044151435</v>
+      </c>
+      <c r="K9">
+        <v>112.4068272706423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Auto-Bag-Suede-Grey</v>
+        <v>Auto-Bag-Suede-Black-Set</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="C10" t="str">
         <v>FBA176X1FK4S</v>
       </c>
-      <c r="D10" t="str">
-        <v>6400 / 200 / 6.759 + 280 / 500 / 6.759 + (406.98 / 2040 / 6.759 + 40 / 2040 / 6.759) * 4</v>
-      </c>
-      <c r="E10" t="str">
-        <v>213.36 / 550 / 6.8606</v>
-      </c>
-      <c r="F10" t="str">
-        <v>3000 / 500 / 6.759</v>
+      <c r="D10">
+        <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4 + (1.0535 / 6.759 + 46.5 / 860 / 6.759) * 2 + 3.5 / 6.759 * 2</f>
+      </c>
+      <c r="E10">
+        <f>6 / 6.759</f>
+      </c>
+      <c r="F10">
+        <f>213.36 / 550 / 6.8606</f>
+      </c>
+      <c r="G10">
+        <f>(0.05747126437 * 487) / 502</f>
+      </c>
+      <c r="H10">
+        <f>(1.1 * 487) / 502</f>
+      </c>
+      <c r="I10">
+        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
+      </c>
+      <c r="J10">
+        <v>8.388814710759828</v>
+      </c>
+      <c r="K10">
+        <v>1744.8734598380443</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
+        <v>Auto-Bag-Suede-Grey</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11" t="str">
+        <v>FBA176X1FK4S</v>
+      </c>
+      <c r="D11">
+        <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
+      </c>
+      <c r="E11">
+        <f>6 / 6.759</f>
+      </c>
+      <c r="F11">
+        <f>213.36 / 550 / 6.8606</f>
+      </c>
+      <c r="G11">
+        <f>(0.05747126437 * 487) / 502</f>
+      </c>
+      <c r="H11">
+        <f>(1.1 * 487) / 502</f>
+      </c>
+      <c r="I11">
+        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
+      </c>
+      <c r="J11">
+        <v>7.0254267044151435</v>
+      </c>
+      <c r="K11">
+        <v>112.4068272706423</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
         <v>Auto-Bag-Suede-Grey-Set</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>180</v>
       </c>
-      <c r="C11" t="str">
-        <v>FBA176X1FK4S</v>
-      </c>
-      <c r="D11" t="str">
-        <v>6400 / 200 / 6.759 + 280 / 500 / 6.759 + (406.98 / 2040 / 6.759 + 40 / 2040 / 6.759) * 4 + (906.01 / 860 / 6.759 + 46.5 / 860 / 6.759) * 2 + 3010 / 860 / 6.759 * 2</v>
-      </c>
-      <c r="E11" t="str">
-        <v>213.36 / 550 / 6.8606</v>
-      </c>
-      <c r="F11" t="str">
-        <v>3000 / 500 / 6.759</v>
+      <c r="C12" t="str">
+        <v>FBA176X1FK4S</v>
+      </c>
+      <c r="D12">
+        <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4 + (1.0535 / 6.759 + 46.5 / 860 / 6.759) * 2 + 3.5 / 6.759 * 2</f>
+      </c>
+      <c r="E12">
+        <f>6 / 6.759</f>
+      </c>
+      <c r="F12">
+        <f>213.36 / 550 / 6.8606</f>
+      </c>
+      <c r="G12">
+        <f>(0.05747126437 * 487) / 502</f>
+      </c>
+      <c r="H12">
+        <f>(1.1 * 487) / 502</f>
+      </c>
+      <c r="I12">
+        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
+      </c>
+      <c r="J12">
+        <v>8.388814710759828</v>
+      </c>
+      <c r="K12">
+        <v>1509.986647936769</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sample-file/test.xlsx
+++ b/sample-file/test.xlsx
@@ -1,51 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Shipment ID</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>PPU</t>
+  </si>
+  <si>
+    <t>Custom Package Cost</t>
+  </si>
+  <si>
+    <t>Packing &amp; Labeling Cost</t>
+  </si>
+  <si>
+    <t>Domestic Shipping Cost</t>
+  </si>
+  <si>
+    <t>International Shipping Cost</t>
+  </si>
+  <si>
+    <t>Payment Cost</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Total Unit</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Auto Cup Holder Coaster</t>
+  </si>
+  <si>
+    <t>FBA176X1FK4S</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Auto Seat Headrest Hook</t>
+  </si>
+  <si>
+    <t>Auto Sunglass Holder</t>
+  </si>
+  <si>
+    <t>Auto Tissue Holder</t>
+  </si>
+  <si>
+    <t>Auto seat belt shoulder protection</t>
+  </si>
+  <si>
+    <t>Auto-Bag-Leather-Black</t>
+  </si>
+  <si>
+    <t>Auto-Bag-Leather-Grey</t>
+  </si>
+  <si>
+    <t>Auto-Bag-Suede-Black</t>
+  </si>
+  <si>
+    <t>Auto-Bag-Suede-Black-Set</t>
+  </si>
+  <si>
+    <t>Auto-Bag-Suede-Grey</t>
+  </si>
+  <si>
+    <t>Auto-Bag-Suede-Grey-Set</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="[$USD]###,###.00"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="\$#,##0.00;\-\$#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,14 +137,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -400,448 +506,510 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M12"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="1" max="3" width="20" customWidth="1"/>
+    <col min="4" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="13" width="20" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>SKU</v>
-      </c>
-      <c r="B1" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="C1" t="str">
-        <v>shipmentId</v>
-      </c>
-      <c r="D1" t="str">
-        <v>ppuPrice</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Custom Package Cost</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Packing &amp; Labeling</v>
-      </c>
-      <c r="G1" t="str">
-        <v>domesticShippingCost</v>
-      </c>
-      <c r="H1" t="str">
-        <v>internationalShippingCost</v>
-      </c>
-      <c r="I1" t="str">
-        <v>itemPaymentCost</v>
-      </c>
-      <c r="J1" t="str">
-        <v>cogs</v>
-      </c>
-      <c r="K1" t="str">
-        <v>amount</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Auto Cup Holder Coaster</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="str">
-        <v>FBA176X1FK4S</v>
-      </c>
-      <c r="D2">
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6">
         <f>(1.0535 / 6.759 + 46.5 / 860 / 6.759) * 2</f>
       </c>
-      <c r="E2">
-        <f>0</f>
-      </c>
-      <c r="F2">
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6">
         <f>213.36 / 550 / 6.8606</f>
       </c>
-      <c r="G2">
-        <f>(0.05747126437 * 487) / 502</f>
-      </c>
-      <c r="H2">
-        <f>(1.1 * 487) / 502</f>
-      </c>
-      <c r="I2">
-        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
-      </c>
-      <c r="J2">
-        <v>1.5185038108413473</v>
-      </c>
-      <c r="K2">
-        <v>15.185038108413472</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Auto Seat Headrest Hook</v>
-      </c>
-      <c r="B3">
+      <c r="G2" s="6">
+        <f>(30/522 * 487) / K2</f>
+      </c>
+      <c r="H2" s="6">
+        <f>(1.1 * 487) / K2</f>
+      </c>
+      <c r="I2" s="6">
+        <f>(G2 + H2) / 99</f>
+      </c>
+      <c r="J2" s="8">
+        <f>SUM(D2:I2)</f>
+      </c>
+      <c r="K2" s="5">
+        <v>502</v>
+      </c>
+      <c r="L2" s="9">
+        <f>J2 * C2</f>
+      </c>
+      <c r="M2" s="9">
+        <f>SUM(L2:L12)</f>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10">
         <v>10</v>
       </c>
-      <c r="C3" t="str">
-        <v>FBA176X1FK4S</v>
-      </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <f>(0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
       </c>
-      <c r="E3">
-        <f>0</f>
-      </c>
-      <c r="F3">
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11">
         <f>213.36 / 550 / 6.8606</f>
       </c>
-      <c r="G3">
-        <f>(0.05747126437 * 487) / 502</f>
-      </c>
-      <c r="H3">
-        <f>(1.1 * 487) / 502</f>
-      </c>
-      <c r="I3">
-        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
-      </c>
-      <c r="J3">
-        <v>1.3204407597487742</v>
-      </c>
-      <c r="K3">
-        <v>13.20440759748774</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Auto Sunglass Holder</v>
-      </c>
-      <c r="B4">
+      <c r="G3" s="11">
+        <f>(30/522 * 487) / K2</f>
+      </c>
+      <c r="H3" s="11">
+        <f>(1.1 * 487) / K2</f>
+      </c>
+      <c r="I3" s="11">
+        <f>(G3 + H3) / 99</f>
+      </c>
+      <c r="J3" s="12">
+        <f>SUM(D3:I3)</f>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="13">
+        <f>J3 * C3</f>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10">
         <v>10</v>
       </c>
-      <c r="C4" t="str">
-        <v>FBA176X1FK4S</v>
-      </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <f>(14.5 / 6.759 + 0.8 / 6.759) * 1</f>
       </c>
-      <c r="E4">
-        <f>0</f>
-      </c>
-      <c r="F4">
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11">
         <f>213.36 / 550 / 6.8606</f>
       </c>
-      <c r="G4">
-        <f>(0.05747126437 * 487) / 502</f>
-      </c>
-      <c r="H4">
-        <f>(1.1 * 487) / 502</f>
-      </c>
-      <c r="I4">
-        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
-      </c>
-      <c r="J4">
-        <v>3.454420435359217</v>
-      </c>
-      <c r="K4">
-        <v>34.54420435359217</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Auto Tissue Holder</v>
-      </c>
-      <c r="B5">
+      <c r="G4" s="11">
+        <f>(30/522 * 487) / K2</f>
+      </c>
+      <c r="H4" s="11">
+        <f>(1.1 * 487) / K2</f>
+      </c>
+      <c r="I4" s="11">
+        <f>(G4 + H4) / 99</f>
+      </c>
+      <c r="J4" s="12">
+        <f>SUM(D4:I4)</f>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="13">
+        <f>J4 * C4</f>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10">
         <v>10</v>
       </c>
-      <c r="C5" t="str">
-        <v>FBA176X1FK4S</v>
-      </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <f>6.5 / 6.759</f>
       </c>
-      <c r="E5">
-        <f>0</f>
-      </c>
-      <c r="F5">
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11">
         <f>213.36 / 550 / 6.8606</f>
       </c>
-      <c r="G5">
-        <f>(0.05747126437 * 487) / 502</f>
-      </c>
-      <c r="H5">
-        <f>(1.1 * 487) / 502</f>
-      </c>
-      <c r="I5">
-        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
-      </c>
-      <c r="J5">
-        <v>2.152452688651124</v>
-      </c>
-      <c r="K5">
-        <v>21.52452688651124</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Auto seat belt shoulder protection</v>
-      </c>
-      <c r="B6">
+      <c r="G5" s="11">
+        <f>(30/522 * 487) / K2</f>
+      </c>
+      <c r="H5" s="11">
+        <f>(1.1 * 487) / K2</f>
+      </c>
+      <c r="I5" s="11">
+        <f>(G5 + H5) / 99</f>
+      </c>
+      <c r="J5" s="12">
+        <f>SUM(D5:I5)</f>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="13">
+        <f>J5 * C5</f>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10">
         <v>10</v>
       </c>
-      <c r="C6" t="str">
-        <v>FBA176X1FK4S</v>
-      </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <f>3.5 / 6.759 * 2</f>
       </c>
-      <c r="E6">
-        <f>0</f>
-      </c>
-      <c r="F6">
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11">
         <f>213.36 / 550 / 6.8606</f>
       </c>
-      <c r="G6">
-        <f>(0.05747126437 * 487) / 502</f>
-      </c>
-      <c r="H6">
-        <f>(1.1 * 487) / 502</f>
-      </c>
-      <c r="I6">
-        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
-      </c>
-      <c r="J6">
-        <v>2.2264281288049927</v>
-      </c>
-      <c r="K6">
-        <v>22.26428128804993</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Auto-Bag-Leather-Black</v>
-      </c>
-      <c r="B7">
+      <c r="G6" s="11">
+        <f>(30/522 * 487) / K2</f>
+      </c>
+      <c r="H6" s="11">
+        <f>(1.1 * 487) / K2</f>
+      </c>
+      <c r="I6" s="11">
+        <f>(G6 + H6) / 99</f>
+      </c>
+      <c r="J6" s="12">
+        <f>SUM(D6:I6)</f>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="13">
+        <f>J6 * C6</f>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10">
         <v>16</v>
       </c>
-      <c r="C7" t="str">
-        <v>FBA176X1FK4S</v>
-      </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <f>21 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
       </c>
-      <c r="E7">
+      <c r="E7" s="11">
         <f>6 / 6.759</f>
       </c>
-      <c r="F7">
+      <c r="F7" s="11">
         <f>213.36 / 550 / 6.8606</f>
       </c>
-      <c r="G7">
-        <f>(0.05747126437 * 487) / 502</f>
-      </c>
-      <c r="H7">
-        <f>(1.1 * 487) / 502</f>
-      </c>
-      <c r="I7">
-        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
-      </c>
-      <c r="J7">
-        <v>5.397967021030029</v>
-      </c>
-      <c r="K7">
-        <v>86.36747233648046</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Auto-Bag-Leather-Grey</v>
-      </c>
-      <c r="B8">
+      <c r="G7" s="11">
+        <f>(30/522 * 487) / K2</f>
+      </c>
+      <c r="H7" s="11">
+        <f>(1.1 * 487) / K2</f>
+      </c>
+      <c r="I7" s="11">
+        <f>(G7 + H7) / 99</f>
+      </c>
+      <c r="J7" s="12">
+        <f>SUM(D7:I7)</f>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="13">
+        <f>J7 * C7</f>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10">
         <v>16</v>
       </c>
-      <c r="C8" t="str">
-        <v>FBA176X1FK4S</v>
-      </c>
-      <c r="D8">
+      <c r="D8" s="11">
         <f>21 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
       </c>
-      <c r="E8">
+      <c r="E8" s="11">
         <f>6 / 6.759</f>
       </c>
-      <c r="F8">
+      <c r="F8" s="11">
         <f>213.36 / 550 / 6.8606</f>
       </c>
-      <c r="G8">
-        <f>(0.05747126437 * 487) / 502</f>
-      </c>
-      <c r="H8">
-        <f>(1.1 * 487) / 502</f>
-      </c>
-      <c r="I8">
-        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
-      </c>
-      <c r="J8">
-        <v>5.397967021030029</v>
-      </c>
-      <c r="K8">
-        <v>86.36747233648046</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Auto-Bag-Suede-Black</v>
-      </c>
-      <c r="B9">
+      <c r="G8" s="11">
+        <f>(30/522 * 487) / K2</f>
+      </c>
+      <c r="H8" s="11">
+        <f>(1.1 * 487) / K2</f>
+      </c>
+      <c r="I8" s="11">
+        <f>(G8 + H8) / 99</f>
+      </c>
+      <c r="J8" s="12">
+        <f>SUM(D8:I8)</f>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="13">
+        <f>J8 * C8</f>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10">
         <v>16</v>
       </c>
-      <c r="C9" t="str">
-        <v>FBA176X1FK4S</v>
-      </c>
-      <c r="D9">
+      <c r="D9" s="11">
         <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
       </c>
-      <c r="E9">
+      <c r="E9" s="11">
         <f>6 / 6.759</f>
       </c>
-      <c r="F9">
+      <c r="F9" s="11">
         <f>213.36 / 550 / 6.8606</f>
       </c>
-      <c r="G9">
-        <f>(0.05747126437 * 487) / 502</f>
-      </c>
-      <c r="H9">
-        <f>(1.1 * 487) / 502</f>
-      </c>
-      <c r="I9">
-        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
-      </c>
-      <c r="J9">
-        <v>7.0254267044151435</v>
-      </c>
-      <c r="K9">
-        <v>112.4068272706423</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Auto-Bag-Suede-Black-Set</v>
-      </c>
-      <c r="B10">
+      <c r="G9" s="11">
+        <f>(30/522 * 487) / K2</f>
+      </c>
+      <c r="H9" s="11">
+        <f>(1.1 * 487) / K2</f>
+      </c>
+      <c r="I9" s="11">
+        <f>(G9 + H9) / 99</f>
+      </c>
+      <c r="J9" s="12">
+        <f>SUM(D9:I9)</f>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="13">
+        <f>J9 * C9</f>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10">
         <v>208</v>
       </c>
-      <c r="C10" t="str">
-        <v>FBA176X1FK4S</v>
-      </c>
-      <c r="D10">
+      <c r="D10" s="11">
         <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4 + (1.0535 / 6.759 + 46.5 / 860 / 6.759) * 2 + 3.5 / 6.759 * 2</f>
       </c>
-      <c r="E10">
+      <c r="E10" s="11">
         <f>6 / 6.759</f>
       </c>
-      <c r="F10">
+      <c r="F10" s="11">
         <f>213.36 / 550 / 6.8606</f>
       </c>
-      <c r="G10">
-        <f>(0.05747126437 * 487) / 502</f>
-      </c>
-      <c r="H10">
-        <f>(1.1 * 487) / 502</f>
-      </c>
-      <c r="I10">
-        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
-      </c>
-      <c r="J10">
-        <v>8.388814710759828</v>
-      </c>
-      <c r="K10">
-        <v>1744.8734598380443</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Auto-Bag-Suede-Grey</v>
-      </c>
-      <c r="B11">
+      <c r="G10" s="11">
+        <f>(30/522 * 487) / K2</f>
+      </c>
+      <c r="H10" s="11">
+        <f>(1.1 * 487) / K2</f>
+      </c>
+      <c r="I10" s="11">
+        <f>(G10 + H10) / 99</f>
+      </c>
+      <c r="J10" s="12">
+        <f>SUM(D10:I10)</f>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="13">
+        <f>J10 * C10</f>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10">
         <v>16</v>
       </c>
-      <c r="C11" t="str">
-        <v>FBA176X1FK4S</v>
-      </c>
-      <c r="D11">
+      <c r="D11" s="11">
         <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
       </c>
-      <c r="E11">
+      <c r="E11" s="11">
         <f>6 / 6.759</f>
       </c>
-      <c r="F11">
+      <c r="F11" s="11">
         <f>213.36 / 550 / 6.8606</f>
       </c>
-      <c r="G11">
-        <f>(0.05747126437 * 487) / 502</f>
-      </c>
-      <c r="H11">
-        <f>(1.1 * 487) / 502</f>
-      </c>
-      <c r="I11">
-        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
-      </c>
-      <c r="J11">
-        <v>7.0254267044151435</v>
-      </c>
-      <c r="K11">
-        <v>112.4068272706423</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Auto-Bag-Suede-Grey-Set</v>
-      </c>
-      <c r="B12">
+      <c r="G11" s="11">
+        <f>(30/522 * 487) / K2</f>
+      </c>
+      <c r="H11" s="11">
+        <f>(1.1 * 487) / K2</f>
+      </c>
+      <c r="I11" s="11">
+        <f>(G11 + H11) / 99</f>
+      </c>
+      <c r="J11" s="12">
+        <f>SUM(D11:I11)</f>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="13">
+        <f>J11 * C11</f>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10">
         <v>180</v>
       </c>
-      <c r="C12" t="str">
-        <v>FBA176X1FK4S</v>
-      </c>
-      <c r="D12">
+      <c r="D12" s="11">
         <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4 + (1.0535 / 6.759 + 46.5 / 860 / 6.759) * 2 + 3.5 / 6.759 * 2</f>
       </c>
-      <c r="E12">
+      <c r="E12" s="11">
         <f>6 / 6.759</f>
       </c>
-      <c r="F12">
+      <c r="F12" s="11">
         <f>213.36 / 550 / 6.8606</f>
       </c>
-      <c r="G12">
-        <f>(0.05747126437 * 487) / 502</f>
-      </c>
-      <c r="H12">
-        <f>(1.1 * 487) / 502</f>
-      </c>
-      <c r="I12">
-        <f>((0.05747126437 * 487) + (1.1 * 487)) / 99 / 502</f>
-      </c>
-      <c r="J12">
-        <v>8.388814710759828</v>
-      </c>
-      <c r="K12">
-        <v>1509.986647936769</v>
+      <c r="G12" s="11">
+        <f>(30/522 * 487) / K2</f>
+      </c>
+      <c r="H12" s="11">
+        <f>(1.1 * 487) / K2</f>
+      </c>
+      <c r="I12" s="11">
+        <f>(G12 + H12) / 99</f>
+      </c>
+      <c r="J12" s="12">
+        <f>SUM(D12:I12)</f>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="13">
+        <f>J12 * C12</f>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/sample-file/test.xlsx
+++ b/sample-file/test.xlsx
@@ -568,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6">
-        <f>(1.0535 / 6.759 + 46.5 / 860 / 6.759) * 2</f>
+        <f>((1.0535 + 46.5 / 860) * 2) / 6.759</f>
       </c>
       <c r="E2" s="7" t="s">
         <v>15</v>
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="11">
-        <f>(0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
+        <f>((0.1995 + 40 / 2040) * 4) / 6.759</f>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="11">
-        <f>(14.5 / 6.759 + 0.8 / 6.759) * 1</f>
+        <f>((14.5 + 0.8) * 1) / 6.759</f>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -691,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="11">
-        <f>6.5 / 6.759</f>
+        <f>(6.5) / 6.759</f>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -732,7 +732,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="11">
-        <f>3.5 / 6.759 * 2</f>
+        <f>(3.5 * 2) / 6.759</f>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -773,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="11">
-        <f>21 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
+        <f>(21 + 0.56 + (0.1995 + 40 / 2040) * 4) / 6.759</f>
       </c>
       <c r="E7" s="11">
         <f>6 / 6.759</f>
@@ -814,7 +814,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="11">
-        <f>21 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
+        <f>(21 + 0.56 + (0.1995 + 40 / 2040) * 4) / 6.759</f>
       </c>
       <c r="E8" s="11">
         <f>6 / 6.759</f>
@@ -855,7 +855,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="11">
-        <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
+        <f>(32 + 0.56 + (0.1995 + 40 / 2040) * 4) / 6.759</f>
       </c>
       <c r="E9" s="11">
         <f>6 / 6.759</f>
@@ -896,7 +896,7 @@
         <v>208</v>
       </c>
       <c r="D10" s="11">
-        <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4 + (1.0535 / 6.759 + 46.5 / 860 / 6.759) * 2 + 3.5 / 6.759 * 2</f>
+        <f>(32 + 0.56 + (0.1995 + 40 / 2040) * 4 + (1.0535 + 46.5 / 860) * 2 + 3.5 * 2) / 6.759</f>
       </c>
       <c r="E10" s="11">
         <f>6 / 6.759</f>
@@ -937,7 +937,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="11">
-        <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
+        <f>(32 + 0.56 + (0.1995 + 40 / 2040) * 4) / 6.759</f>
       </c>
       <c r="E11" s="11">
         <f>6 / 6.759</f>
@@ -978,7 +978,7 @@
         <v>180</v>
       </c>
       <c r="D12" s="11">
-        <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4 + (1.0535 / 6.759 + 46.5 / 860 / 6.759) * 2 + 3.5 / 6.759 * 2</f>
+        <f>(32 + 0.56 + (0.1995 + 40 / 2040) * 4 + (1.0535 + 46.5 / 860) * 2 + 3.5 * 2) / 6.759</f>
       </c>
       <c r="E12" s="11">
         <f>6 / 6.759</f>

--- a/sample-file/test.xlsx
+++ b/sample-file/test.xlsx
@@ -568,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6">
-        <f>((1.0535 + 46.5 / 860) * 2) / 6.759</f>
+        <f>(1.0535 / 6.759 + 46.5 / 860 / 6.759) * 2</f>
       </c>
       <c r="E2" s="7" t="s">
         <v>15</v>
@@ -580,7 +580,7 @@
         <f>(30/522 * 487) / K2</f>
       </c>
       <c r="H2" s="6">
-        <f>(1.1 * 487) / K2</f>
+        <f>(1.1/1 * 487) / K2</f>
       </c>
       <c r="I2" s="6">
         <f>(G2 + H2) / 99</f>
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="11">
-        <f>((0.1995 + 40 / 2040) * 4) / 6.759</f>
+        <f>(0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -621,7 +621,7 @@
         <f>(30/522 * 487) / K2</f>
       </c>
       <c r="H3" s="11">
-        <f>(1.1 * 487) / K2</f>
+        <f>(1.1/1 * 487) / K2</f>
       </c>
       <c r="I3" s="11">
         <f>(G3 + H3) / 99</f>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="11">
-        <f>((14.5 + 0.8) * 1) / 6.759</f>
+        <f>(14.5 / 6.759 + 0.8 / 6.759) * 1</f>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -662,7 +662,7 @@
         <f>(30/522 * 487) / K2</f>
       </c>
       <c r="H4" s="11">
-        <f>(1.1 * 487) / K2</f>
+        <f>(1.1/1 * 487) / K2</f>
       </c>
       <c r="I4" s="11">
         <f>(G4 + H4) / 99</f>
@@ -691,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="11">
-        <f>(6.5) / 6.759</f>
+        <f>6.5 / 6.759</f>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -703,7 +703,7 @@
         <f>(30/522 * 487) / K2</f>
       </c>
       <c r="H5" s="11">
-        <f>(1.1 * 487) / K2</f>
+        <f>(1.1/1 * 487) / K2</f>
       </c>
       <c r="I5" s="11">
         <f>(G5 + H5) / 99</f>
@@ -732,7 +732,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="11">
-        <f>(3.5 * 2) / 6.759</f>
+        <f>3.5 / 6.759 * 2</f>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -744,7 +744,7 @@
         <f>(30/522 * 487) / K2</f>
       </c>
       <c r="H6" s="11">
-        <f>(1.1 * 487) / K2</f>
+        <f>(1.1/1 * 487) / K2</f>
       </c>
       <c r="I6" s="11">
         <f>(G6 + H6) / 99</f>
@@ -773,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="11">
-        <f>(21 + 0.56 + (0.1995 + 40 / 2040) * 4) / 6.759</f>
+        <f>21 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
       </c>
       <c r="E7" s="11">
         <f>6 / 6.759</f>
@@ -785,7 +785,7 @@
         <f>(30/522 * 487) / K2</f>
       </c>
       <c r="H7" s="11">
-        <f>(1.1 * 487) / K2</f>
+        <f>(1.1/1 * 487) / K2</f>
       </c>
       <c r="I7" s="11">
         <f>(G7 + H7) / 99</f>
@@ -814,7 +814,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="11">
-        <f>(21 + 0.56 + (0.1995 + 40 / 2040) * 4) / 6.759</f>
+        <f>21 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
       </c>
       <c r="E8" s="11">
         <f>6 / 6.759</f>
@@ -826,7 +826,7 @@
         <f>(30/522 * 487) / K2</f>
       </c>
       <c r="H8" s="11">
-        <f>(1.1 * 487) / K2</f>
+        <f>(1.1/1 * 487) / K2</f>
       </c>
       <c r="I8" s="11">
         <f>(G8 + H8) / 99</f>
@@ -855,7 +855,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="11">
-        <f>(32 + 0.56 + (0.1995 + 40 / 2040) * 4) / 6.759</f>
+        <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
       </c>
       <c r="E9" s="11">
         <f>6 / 6.759</f>
@@ -867,7 +867,7 @@
         <f>(30/522 * 487) / K2</f>
       </c>
       <c r="H9" s="11">
-        <f>(1.1 * 487) / K2</f>
+        <f>(1.1/1 * 487) / K2</f>
       </c>
       <c r="I9" s="11">
         <f>(G9 + H9) / 99</f>
@@ -896,7 +896,7 @@
         <v>208</v>
       </c>
       <c r="D10" s="11">
-        <f>(32 + 0.56 + (0.1995 + 40 / 2040) * 4 + (1.0535 + 46.5 / 860) * 2 + 3.5 * 2) / 6.759</f>
+        <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4 + (1.0535 / 6.759 + 46.5 / 860 / 6.759) * 2 + 3.5 / 6.759 * 2</f>
       </c>
       <c r="E10" s="11">
         <f>6 / 6.759</f>
@@ -908,7 +908,7 @@
         <f>(30/522 * 487) / K2</f>
       </c>
       <c r="H10" s="11">
-        <f>(1.1 * 487) / K2</f>
+        <f>(1.1/1 * 487) / K2</f>
       </c>
       <c r="I10" s="11">
         <f>(G10 + H10) / 99</f>
@@ -937,7 +937,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="11">
-        <f>(32 + 0.56 + (0.1995 + 40 / 2040) * 4) / 6.759</f>
+        <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4</f>
       </c>
       <c r="E11" s="11">
         <f>6 / 6.759</f>
@@ -949,7 +949,7 @@
         <f>(30/522 * 487) / K2</f>
       </c>
       <c r="H11" s="11">
-        <f>(1.1 * 487) / K2</f>
+        <f>(1.1/1 * 487) / K2</f>
       </c>
       <c r="I11" s="11">
         <f>(G11 + H11) / 99</f>
@@ -978,7 +978,7 @@
         <v>180</v>
       </c>
       <c r="D12" s="11">
-        <f>(32 + 0.56 + (0.1995 + 40 / 2040) * 4 + (1.0535 + 46.5 / 860) * 2 + 3.5 * 2) / 6.759</f>
+        <f>32 / 6.759 + 0.56 / 6.759 + (0.1995 / 6.759 + 40 / 2040 / 6.759) * 4 + (1.0535 / 6.759 + 46.5 / 860 / 6.759) * 2 + 3.5 / 6.759 * 2</f>
       </c>
       <c r="E12" s="11">
         <f>6 / 6.759</f>
@@ -990,7 +990,7 @@
         <f>(30/522 * 487) / K2</f>
       </c>
       <c r="H12" s="11">
-        <f>(1.1 * 487) / K2</f>
+        <f>(1.1/1 * 487) / K2</f>
       </c>
       <c r="I12" s="11">
         <f>(G12 + H12) / 99</f>
